--- a/data/case1/13/Qloss_13.xlsx
+++ b/data/case1/13/Qloss_13.xlsx
@@ -56,12 +56,12 @@
   <dimension ref="A1"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="13.7109375" customWidth="true"/>
+    <col min="1" max="1" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>0.010471082157987421</v>
+        <v>0.0093684070491559801</v>
       </c>
     </row>
   </sheetData>
